--- a/fichiers/conf/modele_cec.xlsx
+++ b/fichiers/conf/modele_cec.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7705A0-23F5-4A30-8A59-6BE73E65CBC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4941805-15CC-469A-8822-B2A6BF691580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="518" xr2:uid="{F5508FE1-D83D-44B5-9308-09B67A2C1A53}"/>
+    <workbookView xWindow="4965" yWindow="345" windowWidth="21675" windowHeight="14280" tabRatio="518" xr2:uid="{F5508FE1-D83D-44B5-9308-09B67A2C1A53}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculateur" sheetId="1" r:id="rId1"/>
     <sheet name="Paramètres" sheetId="2" r:id="rId2"/>
     <sheet name="details" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -143,12 +142,6 @@
     <t>Année</t>
   </si>
   <si>
-    <t>&lt;jt:forEach items="${activites_cec}" var="result"&gt;${result.groupe}</t>
-  </si>
-  <si>
-    <t>${result.unitecourt}</t>
-  </si>
-  <si>
     <t>${result.nom}</t>
   </si>
   <si>
@@ -249,6 +242,12 @@
   </si>
   <si>
     <t>$[IF(ISBLANK(B32),"",D32*D32)]</t>
+  </si>
+  <si>
+    <t>${result.unite.nom}</t>
+  </si>
+  <si>
+    <t>&lt;jt:forEach items="${activites_cec}" var="result"&gt;${result.unite.groupe.nom}</t>
   </si>
 </sst>
 </file>
@@ -439,23 +438,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Calculateur"/>
-      <sheetName val="Paramètres"/>
-      <sheetName val="details"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -757,9 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B483C99-26A1-4604-8677-BFC631F97A67}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -824,14 +804,14 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3">
         <f>IF(ISBLANK(B9),"",VLOOKUP(B9,Paramètres!$A$3:$B$12,2,FALSE))</f>
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -839,14 +819,14 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3">
         <f>IF(ISBLANK(B10),"",VLOOKUP(B10,Paramètres!$A$3:$B$12,2,FALSE))</f>
         <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -854,14 +834,14 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3">
         <f>IF(ISBLANK(B11),"",VLOOKUP(B11,Paramètres!$A$3:$B$12,2,FALSE))</f>
         <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -869,14 +849,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3">
         <f>IF(ISBLANK(B12),"",VLOOKUP(B12,Paramètres!$A$3:$B$12,2,FALSE))</f>
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -884,14 +864,14 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3">
         <f>IF(ISBLANK(B13),"",VLOOKUP(B13,Paramètres!$A$3:$B$12,2,FALSE))</f>
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -902,7 +882,7 @@
         <v/>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -913,7 +893,7 @@
         <v/>
       </c>
       <c r="E15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -924,7 +904,7 @@
         <v/>
       </c>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -935,7 +915,7 @@
         <v/>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -946,7 +926,7 @@
         <v/>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -957,7 +937,7 @@
         <v/>
       </c>
       <c r="E19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -968,7 +948,7 @@
         <v/>
       </c>
       <c r="E20" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -979,7 +959,7 @@
         <v/>
       </c>
       <c r="E21" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -990,7 +970,7 @@
         <v/>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -1001,7 +981,7 @@
         <v/>
       </c>
       <c r="E23" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -1012,7 +992,7 @@
         <v/>
       </c>
       <c r="E24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -1023,7 +1003,7 @@
         <v/>
       </c>
       <c r="E25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -1034,7 +1014,7 @@
         <v/>
       </c>
       <c r="E26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -1045,7 +1025,7 @@
         <v/>
       </c>
       <c r="E27" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1056,7 +1036,7 @@
         <v/>
       </c>
       <c r="E28" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -1067,7 +1047,7 @@
         <v/>
       </c>
       <c r="E29" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -1078,7 +1058,7 @@
         <v/>
       </c>
       <c r="E30" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -1089,7 +1069,7 @@
         <v/>
       </c>
       <c r="E31" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1099,7 +1079,7 @@
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1274,9 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB4A2DF-6EA5-4E62-9BB8-C185015026FA}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1310,25 +1288,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
